--- a/docs/画面項目定義書/virtual_machine_management/mo_backup_create.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_backup_create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E1FAC-7011-4210-9C82-951F2610CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB6CCF-2001-494B-8094-D50985D73D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,21 +727,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2979720</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>237240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
+        <xdr:cNvPr id="5" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D49AE3-75B3-4A84-97D4-7A7B56BC8498}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -749,8 +749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391080" y="6808320"/>
-          <a:ext cx="6140880" cy="237240"/>
+          <a:off x="5762460" y="5013325"/>
+          <a:ext cx="5535760" cy="167390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1105,7 +1105,7 @@
       <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1114,7 +1114,7 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1203,170 +1203,29 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.25">
-      <c r="A14" s="24">
-        <v>6</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.25">
-      <c r="A15" s="21">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.25">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.25">
-      <c r="A17" s="21">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.25">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.25">
-      <c r="A19" s="21">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.25">
-      <c r="A20" s="24">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.25">
-      <c r="A21" s="21">
-        <v>13</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.25">
-      <c r="A22" s="24">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.25">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.25">
-      <c r="A24" s="24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.25">
-      <c r="A25" s="21">
-        <v>17</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.25"/>
+    <row r="16" spans="1:7" ht="13.25"/>
+    <row r="17" ht="13.25"/>
+    <row r="18" ht="13.25"/>
+    <row r="19" ht="13.25"/>
+    <row r="20" ht="13.25"/>
+    <row r="21" ht="13.25"/>
+    <row r="22" ht="13.25"/>
+    <row r="23" ht="13.25"/>
+    <row r="24" ht="13.25"/>
+    <row r="25" ht="13.25"/>
+    <row r="26" ht="13.25"/>
+    <row r="27" ht="13.25"/>
+    <row r="28" ht="13.25"/>
+    <row r="29" ht="13.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:B5"/>
